--- a/Economic_Impact_and_Implementation_Plan_Analysis/Rarita_GDP_Economic_Impact.xlsx
+++ b/Economic_Impact_and_Implementation_Plan_Analysis/Rarita_GDP_Economic_Impact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellakatsiris/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6073B4EC-728F-8744-901C-4C08713DB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C01FA4-860C-D64F-8ECE-5F1AC8455A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="26180" windowHeight="16400" firstSheet="6" activeTab="10" xr2:uid="{6939AC4C-B91C-414B-9F8D-9067EF676BA8}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="26180" windowHeight="16400" firstSheet="6" activeTab="8" xr2:uid="{6939AC4C-B91C-414B-9F8D-9067EF676BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA FOR TIME SERIES ----&gt;&gt;" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <sheet name="Rarita Economic" sheetId="11" r:id="rId11"/>
     <sheet name="Rarita GDP by province" sheetId="12" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2405,153 +2402,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Revenue"/>
-      <sheetName val="Revenue Forecast"/>
-      <sheetName val="Rarita Expense Forecast"/>
-      <sheetName val="Correlation Matrix"/>
-      <sheetName val="Revenue Benchmark"/>
-      <sheetName val="Revenue Growth"/>
-      <sheetName val="Expense"/>
-      <sheetName val="Expense Growth"/>
-      <sheetName val="Expense Benchmark"/>
-      <sheetName val="Profit"/>
-      <sheetName val="Profit Growth"/>
-      <sheetName val="Attendance"/>
-      <sheetName val="Rarita Attendance"/>
-      <sheetName val="Social Media"/>
-      <sheetName val="Rarita Social Media"/>
-      <sheetName val="Rarita Economic"/>
-      <sheetName val="Rarita Spot Rates"/>
-      <sheetName val="Rarita inflation rates"/>
-      <sheetName val="Other Countries' GDP"/>
-      <sheetName val="Tournament Ranking"/>
-      <sheetName val="2020 Salaries"/>
-      <sheetName val="2021 Salaries"/>
-      <sheetName val="Salary by position"/>
-      <sheetName val="Salary Change"/>
-      <sheetName val="Salary by Country"/>
-      <sheetName val="Salary growth regress"/>
-      <sheetName val="Team Selection Salary"/>
-      <sheetName val="Tournament Shooting"/>
-      <sheetName val="Tournament Passing"/>
-      <sheetName val="Tournament Defense"/>
-      <sheetName val="Tournament Goalkeeping"/>
-      <sheetName val="Aggregate Tournament"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="F3">
-            <v>176.33974766070651</v>
-          </cell>
-          <cell r="G3">
-            <v>192.87759124612907</v>
-          </cell>
-          <cell r="H3">
-            <v>224.15326755845302</v>
-          </cell>
-          <cell r="I3">
-            <v>258.90038520316813</v>
-          </cell>
-          <cell r="J3">
-            <v>297.17430746742718</v>
-          </cell>
-          <cell r="K3">
-            <v>338.96168932945398</v>
-          </cell>
-          <cell r="L3">
-            <v>384.1700917821787</v>
-          </cell>
-          <cell r="M3">
-            <v>432.61899121775645</v>
-          </cell>
-          <cell r="N3">
-            <v>487.17899333728872</v>
-          </cell>
-          <cell r="O3">
-            <v>548.62104846427314</v>
-          </cell>
-          <cell r="P3">
-            <v>617.81338173704785</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="G5">
-            <v>159.05451804584203</v>
-          </cell>
-          <cell r="H5">
-            <v>198.8181475573025</v>
-          </cell>
-          <cell r="I5">
-            <v>222.36356736288832</v>
-          </cell>
-          <cell r="J5">
-            <v>248.69739859184023</v>
-          </cell>
-          <cell r="K5">
-            <v>278.14986420599791</v>
-          </cell>
-          <cell r="L5">
-            <v>311.09029445374142</v>
-          </cell>
-          <cell r="M5">
-            <v>332.83471690491774</v>
-          </cell>
-          <cell r="N5">
-            <v>356.16345320285456</v>
-          </cell>
-          <cell r="O5">
-            <v>381.19685266063578</v>
-          </cell>
-          <cell r="P5">
-            <v>408.064766373704</v>
-          </cell>
-          <cell r="Q5">
-            <v>436.90732264782037</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2880,7 +2730,7 @@
   </sheetPr>
   <dimension ref="B1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" workbookViewId="0">
       <selection activeCell="N26" sqref="N26:Q26"/>
     </sheetView>
   </sheetViews>
@@ -7351,8 +7201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802E4DA6-9797-5D4B-85E0-60D47E0B3060}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7394,11 +7244,9 @@
         <v>1763.6669999999999</v>
       </c>
       <c r="E2" s="39">
-        <f>'[1]Revenue Forecast'!$F$3</f>
         <v>176.33974766070651</v>
       </c>
       <c r="F2" s="39">
-        <f>'[1]Rarita Expense Forecast'!$G$5</f>
         <v>159.05451804584203</v>
       </c>
       <c r="G2" s="39">
@@ -7420,11 +7268,9 @@
         <v>1797.3330000000001</v>
       </c>
       <c r="E3" s="39">
-        <f>'[1]Revenue Forecast'!$G$3</f>
         <v>192.87759124612907</v>
       </c>
       <c r="F3" s="39">
-        <f>'[1]Rarita Expense Forecast'!$H$5</f>
         <v>198.8181475573025</v>
       </c>
       <c r="G3" s="39">
@@ -7446,11 +7292,9 @@
         <v>1831</v>
       </c>
       <c r="E4" s="39">
-        <f>'[1]Revenue Forecast'!$H$3</f>
         <v>224.15326755845302</v>
       </c>
       <c r="F4" s="39">
-        <f>'[1]Rarita Expense Forecast'!$I$5</f>
         <v>222.36356736288832</v>
       </c>
       <c r="G4" s="39">
@@ -7472,11 +7316,9 @@
         <v>1864.6669999999999</v>
       </c>
       <c r="E5" s="39">
-        <f>'[1]Revenue Forecast'!$I$3</f>
         <v>258.90038520316813</v>
       </c>
       <c r="F5" s="39">
-        <f>'[1]Rarita Expense Forecast'!$J$5</f>
         <v>248.69739859184023</v>
       </c>
       <c r="G5" s="39">
@@ -7498,11 +7340,9 @@
         <v>1898.3330000000001</v>
       </c>
       <c r="E6" s="39">
-        <f>'[1]Revenue Forecast'!$J$3</f>
         <v>297.17430746742718</v>
       </c>
       <c r="F6" s="39">
-        <f>'[1]Rarita Expense Forecast'!$K$5</f>
         <v>278.14986420599791</v>
       </c>
       <c r="G6" s="39">
@@ -7524,11 +7364,9 @@
         <v>1932</v>
       </c>
       <c r="E7" s="39">
-        <f>'[1]Revenue Forecast'!$K$3</f>
         <v>338.96168932945398</v>
       </c>
       <c r="F7" s="39">
-        <f>'[1]Rarita Expense Forecast'!$L$5</f>
         <v>311.09029445374142</v>
       </c>
       <c r="G7" s="39">
@@ -7550,11 +7388,9 @@
         <v>1965.6669999999999</v>
       </c>
       <c r="E8" s="39">
-        <f>'[1]Revenue Forecast'!$L$3</f>
         <v>384.1700917821787</v>
       </c>
       <c r="F8" s="39">
-        <f>'[1]Rarita Expense Forecast'!$M$5</f>
         <v>332.83471690491774</v>
       </c>
       <c r="G8" s="39">
@@ -7576,11 +7412,9 @@
         <v>1999.3330000000001</v>
       </c>
       <c r="E9" s="39">
-        <f>'[1]Revenue Forecast'!$M$3</f>
         <v>432.61899121775645</v>
       </c>
       <c r="F9" s="39">
-        <f>'[1]Rarita Expense Forecast'!$N$5</f>
         <v>356.16345320285456</v>
       </c>
       <c r="G9" s="39">
@@ -7602,11 +7436,9 @@
         <v>2033</v>
       </c>
       <c r="E10" s="39">
-        <f>'[1]Revenue Forecast'!$N$3</f>
         <v>487.17899333728872</v>
       </c>
       <c r="F10" s="39">
-        <f>'[1]Rarita Expense Forecast'!$O$5</f>
         <v>381.19685266063578</v>
       </c>
       <c r="G10" s="39">
@@ -7628,11 +7460,9 @@
         <v>2066.6669999999999</v>
       </c>
       <c r="E11" s="39">
-        <f>'[1]Revenue Forecast'!$O$3</f>
         <v>548.62104846427314</v>
       </c>
       <c r="F11" s="39">
-        <f>'[1]Rarita Expense Forecast'!$P$5</f>
         <v>408.064766373704</v>
       </c>
       <c r="G11" s="39">
@@ -7654,11 +7484,9 @@
         <v>2100.3330000000001</v>
       </c>
       <c r="E12" s="39">
-        <f>'[1]Revenue Forecast'!$P$3</f>
         <v>617.81338173704785</v>
       </c>
       <c r="F12" s="39">
-        <f>'[1]Rarita Expense Forecast'!$Q$5</f>
         <v>436.90732264782037</v>
       </c>
       <c r="G12" s="39">
